--- a/materials/各历进朔退弦望法.xlsx
+++ b/materials/各历进朔退弦望法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Desktop\github\表格整理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Desktop\github\public\The Sky Pacer\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F208B518-28FB-43BE-ADE5-215DCC32575A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F976D-E349-4656-A7F3-AB9D9C49742D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14985" yWindow="735" windowWidth="13545" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,22 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>以课所近节气夜漏未尽，以算上为日。</t>
+          <t>其弦望定小余四百一以下，以百刻乘之，满日法得一刻，不尽什之，求分，以课所近节气夜漏未尽，以算上为日。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{D8B04A20-7095-4B0B-AD82-B76480F9147C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其月蚀望者，定小余，如所近中节间限，限数以下者，算上为日。望在中节前后各四日以还者，视限数；望在中节前后各五日以上者，视间限。</t>
         </r>
         <r>
           <rPr>
@@ -71,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{BB74D9CC-8A61-4E79-8CD2-6570A7F1AD64}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{C99F573C-A21D-4F84-9350-52424FE0CE27}">
       <text>
         <r>
           <rPr>
@@ -82,11 +97,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>在中节前后四日以还者，视限数。在中节前后五日以上者，视间限数。月食加时定小余不满限数、间数者，皆以算上为日。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{BB74D9CC-8A61-4E79-8CD2-6570A7F1AD64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>《元史·志第五》：淳风又以晦月频见，故立进朔之法，谓朔日小余在日法四分之三已上者，虚进一日。</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{3B985804-C163-4D5D-A13E-45E26450E863}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{3B985804-C163-4D5D-A13E-45E26450E863}">
       <text>
         <r>
           <rPr>
@@ -101,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{59B0F46E-AA4B-4A03-B29D-DA14F0E7354E}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{59B0F46E-AA4B-4A03-B29D-DA14F0E7354E}">
       <text>
         <r>
           <rPr>
@@ -117,7 +158,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{DB3CC679-3EF2-475C-B464-4251BCAFE458}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{DB3CC679-3EF2-475C-B464-4251BCAFE458}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>参考大衍历退弦望术及五纪历进朔术，可能为：当视定朔小余不满《大衍》通法，如晨初余数已下者，进以明日为朔。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{8A74483F-8701-4D2F-8F81-A34E10AFBF04}">
       <text>
         <r>
           <rPr>
@@ -128,26 +183,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>参考大衍历退弦望术及五纪历进朔术，可能为：当视定朔小余不满《大衍》通法，如晨初余数已下者，进以明日为朔。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{8A74483F-8701-4D2F-8F81-A34E10AFBF04}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
           <t>若注历，观弦、望定小余，不盈晨初余数者，退一日。其望有交、起亏在晨初已前者，亦如之。</t>
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{0CE430C3-2057-4E1C-98C3-2FCC7762B190}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{0CE430C3-2057-4E1C-98C3-2FCC7762B190}">
       <text>
         <r>
           <rPr>
@@ -173,7 +213,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{5D564E2C-368B-4270-8BFD-ADD1B9CC0B9C}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{5D564E2C-368B-4270-8BFD-ADD1B9CC0B9C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>借大衍历漏刻数据计算晨初余数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{566291F1-F12A-45AE-B755-CA1179D64C14}">
       <text>
         <r>
           <rPr>
@@ -184,11 +238,25 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>其气朔、发敛、日躔、月离、轨漏、交会，悉如《五纪》法。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{A6FD84E4-77EE-48B7-966C-A20A69AC5929}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>借大衍历漏刻数据计算晨初余数</t>
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{566291F1-F12A-45AE-B755-CA1179D64C14}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{5B951613-BA10-4E37-AA6A-C2413D040BBF}">
       <text>
         <r>
           <rPr>
@@ -199,41 +267,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>其气朔、发敛、日躔、月离、轨漏、交会，悉如《五纪》法。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D584D059-7A7B-443B-B869-3EFBE066311F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>借大衍历漏刻数据计算晨初余数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{5B951613-BA10-4E37-AA6A-C2413D040BBF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
           <t>凡定朔小余，秋分后，四分之三已上，进一日。春分后，昏明小余差春分初日者，五而一，以减四分之三。定朔小余如此数已上者，进一日。或有交，应见亏初，则否。</t>
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{01F7B311-04D1-4662-A543-C49A2A7B0CD5}">
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{01F7B311-04D1-4662-A543-C49A2A7B0CD5}">
       <text>
         <r>
           <rPr>
@@ -259,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{4ADDB360-280A-4F10-914E-E705266DB1F4}">
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{4ADDB360-280A-4F10-914E-E705266DB1F4}">
       <text>
         <r>
           <rPr>
@@ -279,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>四分历</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如前历法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大衍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,7 +484,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原法列批注为史料原文</t>
+    <t>批注加粗文字为史料原文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大明历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正光历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴和历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏书志第九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -520,28 +570,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,268 +1042,339 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="G17" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="H17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
